--- a/example.xlsx
+++ b/example.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="log" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="food" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="measurements" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="48">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -151,6 +152,21 @@
   <si>
     <t xml:space="preserve">Almonds</t>
   </si>
+  <si>
+    <t xml:space="preserve">Thighs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chest</t>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +176,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -182,6 +198,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -226,13 +250,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -254,31 +294,31 @@
   </sheetPr>
   <dimension ref="A1:C459"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C347" activeCellId="0" sqref="C347"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.91"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>44242</v>
       </c>
       <c r="B2" s="0" t="n">
@@ -289,7 +329,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>44242</v>
       </c>
       <c r="B3" s="0" t="n">
@@ -300,7 +340,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>44242</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -311,7 +351,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>44242</v>
       </c>
       <c r="B5" s="0" t="n">
@@ -322,7 +362,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>44242</v>
       </c>
       <c r="B6" s="0" t="n">
@@ -333,7 +373,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>44242</v>
       </c>
       <c r="B7" s="0" t="n">
@@ -344,7 +384,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>44242</v>
       </c>
       <c r="B8" s="0" t="n">
@@ -355,7 +395,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>44242</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -366,7 +406,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>44242</v>
       </c>
       <c r="B10" s="0" t="n">
@@ -377,7 +417,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>44243</v>
       </c>
       <c r="B11" s="0" t="n">
@@ -388,7 +428,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>44243</v>
       </c>
       <c r="B12" s="0" t="n">
@@ -399,7 +439,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>44243</v>
       </c>
       <c r="B13" s="0" t="n">
@@ -410,7 +450,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>44243</v>
       </c>
       <c r="B14" s="0" t="n">
@@ -421,7 +461,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>44243</v>
       </c>
       <c r="B15" s="0" t="n">
@@ -432,7 +472,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>44243</v>
       </c>
       <c r="B16" s="0" t="n">
@@ -443,7 +483,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>44243</v>
       </c>
       <c r="B17" s="0" t="n">
@@ -454,7 +494,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>44243</v>
       </c>
       <c r="B18" s="0" t="n">
@@ -465,7 +505,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>44243</v>
       </c>
       <c r="B19" s="0" t="n">
@@ -476,7 +516,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2" t="n">
         <v>44244</v>
       </c>
       <c r="B20" s="0" t="n">
@@ -487,7 +527,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>44244</v>
       </c>
       <c r="B21" s="0" t="n">
@@ -498,7 +538,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="2" t="n">
         <v>44244</v>
       </c>
       <c r="B22" s="0" t="n">
@@ -509,7 +549,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="2" t="n">
         <v>44244</v>
       </c>
       <c r="B23" s="0" t="n">
@@ -520,7 +560,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="2" t="n">
         <v>44244</v>
       </c>
       <c r="B24" s="0" t="n">
@@ -531,7 +571,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="2" t="n">
         <v>44244</v>
       </c>
       <c r="B25" s="0" t="n">
@@ -542,7 +582,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="2" t="n">
         <v>44244</v>
       </c>
       <c r="B26" s="0" t="n">
@@ -553,7 +593,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="2" t="n">
         <v>44244</v>
       </c>
       <c r="B27" s="0" t="n">
@@ -564,7 +604,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="2" t="n">
         <v>44244</v>
       </c>
       <c r="B28" s="0" t="n">
@@ -575,7 +615,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="2" t="n">
         <v>44244</v>
       </c>
       <c r="B29" s="0" t="n">
@@ -586,7 +626,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="2" t="n">
         <v>44245</v>
       </c>
       <c r="B30" s="0" t="n">
@@ -597,7 +637,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="2" t="n">
         <v>44245</v>
       </c>
       <c r="B31" s="0" t="n">
@@ -608,7 +648,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="2" t="n">
         <v>44245</v>
       </c>
       <c r="B32" s="0" t="n">
@@ -619,7 +659,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="2" t="n">
         <v>44245</v>
       </c>
       <c r="B33" s="0" t="n">
@@ -630,7 +670,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="2" t="n">
         <v>44245</v>
       </c>
       <c r="B34" s="0" t="n">
@@ -641,7 +681,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="2" t="n">
         <v>44245</v>
       </c>
       <c r="B35" s="0" t="n">
@@ -652,7 +692,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="2" t="n">
         <v>44245</v>
       </c>
       <c r="B36" s="0" t="n">
@@ -663,7 +703,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="2" t="n">
         <v>44245</v>
       </c>
       <c r="B37" s="0" t="n">
@@ -674,7 +714,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="2" t="n">
         <v>44245</v>
       </c>
       <c r="B38" s="0" t="n">
@@ -685,7 +725,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="2" t="n">
         <v>44245</v>
       </c>
       <c r="B39" s="0" t="n">
@@ -696,7 +736,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="2" t="n">
         <v>44245</v>
       </c>
       <c r="B40" s="0" t="n">
@@ -707,7 +747,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="2" t="n">
         <v>44245</v>
       </c>
       <c r="B41" s="0" t="n">
@@ -718,7 +758,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="2" t="n">
         <v>44246</v>
       </c>
       <c r="B42" s="0" t="n">
@@ -729,7 +769,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="2" t="n">
         <v>44246</v>
       </c>
       <c r="B43" s="0" t="n">
@@ -740,7 +780,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="2" t="n">
         <v>44246</v>
       </c>
       <c r="B44" s="0" t="n">
@@ -751,7 +791,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="2" t="n">
         <v>44246</v>
       </c>
       <c r="B45" s="0" t="n">
@@ -762,7 +802,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="2" t="n">
         <v>44246</v>
       </c>
       <c r="B46" s="0" t="n">
@@ -773,7 +813,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="2" t="n">
         <v>44246</v>
       </c>
       <c r="B47" s="0" t="n">
@@ -784,7 +824,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="2" t="n">
         <v>44246</v>
       </c>
       <c r="B48" s="0" t="n">
@@ -795,7 +835,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="2" t="n">
         <v>44246</v>
       </c>
       <c r="B49" s="0" t="n">
@@ -806,7 +846,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="2" t="n">
         <v>44246</v>
       </c>
       <c r="B50" s="0" t="n">
@@ -817,7 +857,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="2" t="n">
         <v>44246</v>
       </c>
       <c r="B51" s="0" t="n">
@@ -828,7 +868,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="2" t="n">
         <v>44246</v>
       </c>
       <c r="B52" s="0" t="n">
@@ -839,7 +879,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="2" t="n">
         <v>44246</v>
       </c>
       <c r="B53" s="0" t="n">
@@ -850,7 +890,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="2" t="n">
         <v>44247</v>
       </c>
       <c r="B54" s="0" t="n">
@@ -861,7 +901,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="2" t="n">
         <v>44247</v>
       </c>
       <c r="B55" s="0" t="n">
@@ -872,7 +912,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="2" t="n">
         <v>44247</v>
       </c>
       <c r="B56" s="0" t="n">
@@ -883,7 +923,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="2" t="n">
         <v>44247</v>
       </c>
       <c r="B57" s="0" t="n">
@@ -894,7 +934,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="2" t="n">
         <v>44247</v>
       </c>
       <c r="B58" s="0" t="n">
@@ -905,7 +945,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="2" t="n">
         <v>44247</v>
       </c>
       <c r="B59" s="0" t="n">
@@ -916,7 +956,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="2" t="n">
         <v>44247</v>
       </c>
       <c r="B60" s="0" t="n">
@@ -927,7 +967,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="2" t="n">
         <v>44247</v>
       </c>
       <c r="B61" s="0" t="n">
@@ -938,7 +978,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="2" t="n">
         <v>44247</v>
       </c>
       <c r="B62" s="0" t="n">
@@ -949,7 +989,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="2" t="n">
         <v>44247</v>
       </c>
       <c r="B63" s="0" t="n">
@@ -960,7 +1000,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="2" t="n">
         <v>44248</v>
       </c>
       <c r="B64" s="0" t="n">
@@ -971,7 +1011,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="2" t="n">
         <v>44248</v>
       </c>
       <c r="B65" s="0" t="n">
@@ -982,7 +1022,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="2" t="n">
         <v>44248</v>
       </c>
       <c r="B66" s="0" t="n">
@@ -993,7 +1033,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="2" t="n">
         <v>44248</v>
       </c>
       <c r="B67" s="0" t="n">
@@ -1004,7 +1044,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="2" t="n">
         <v>44248</v>
       </c>
       <c r="B68" s="0" t="n">
@@ -1015,7 +1055,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="2" t="n">
         <v>44248</v>
       </c>
       <c r="B69" s="0" t="n">
@@ -1026,7 +1066,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="2" t="n">
         <v>44248</v>
       </c>
       <c r="B70" s="0" t="n">
@@ -1037,7 +1077,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="2" t="n">
         <v>44248</v>
       </c>
       <c r="B71" s="0" t="n">
@@ -1048,7 +1088,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="2" t="n">
         <v>44248</v>
       </c>
       <c r="B72" s="0" t="n">
@@ -1059,7 +1099,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="2" t="n">
         <v>44249</v>
       </c>
       <c r="B73" s="0" t="n">
@@ -1070,7 +1110,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+      <c r="A74" s="2" t="n">
         <v>44249</v>
       </c>
       <c r="B74" s="0" t="n">
@@ -1081,7 +1121,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+      <c r="A75" s="2" t="n">
         <v>44249</v>
       </c>
       <c r="B75" s="0" t="n">
@@ -1092,7 +1132,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+      <c r="A76" s="2" t="n">
         <v>44249</v>
       </c>
       <c r="B76" s="0" t="n">
@@ -1103,7 +1143,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+      <c r="A77" s="2" t="n">
         <v>44249</v>
       </c>
       <c r="B77" s="0" t="n">
@@ -1114,7 +1154,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+      <c r="A78" s="2" t="n">
         <v>44249</v>
       </c>
       <c r="B78" s="0" t="n">
@@ -1125,7 +1165,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+      <c r="A79" s="2" t="n">
         <v>44249</v>
       </c>
       <c r="B79" s="0" t="n">
@@ -1136,7 +1176,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+      <c r="A80" s="2" t="n">
         <v>44249</v>
       </c>
       <c r="B80" s="0" t="n">
@@ -1147,7 +1187,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+      <c r="A81" s="2" t="n">
         <v>44249</v>
       </c>
       <c r="B81" s="0" t="n">
@@ -1158,7 +1198,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+      <c r="A82" s="2" t="n">
         <v>44250</v>
       </c>
       <c r="B82" s="0" t="n">
@@ -1169,7 +1209,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+      <c r="A83" s="2" t="n">
         <v>44250</v>
       </c>
       <c r="B83" s="0" t="n">
@@ -1180,7 +1220,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+      <c r="A84" s="2" t="n">
         <v>44250</v>
       </c>
       <c r="B84" s="0" t="n">
@@ -1191,7 +1231,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+      <c r="A85" s="2" t="n">
         <v>44250</v>
       </c>
       <c r="B85" s="0" t="n">
@@ -1202,7 +1242,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+      <c r="A86" s="2" t="n">
         <v>44250</v>
       </c>
       <c r="B86" s="0" t="n">
@@ -1213,7 +1253,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+      <c r="A87" s="2" t="n">
         <v>44250</v>
       </c>
       <c r="B87" s="0" t="n">
@@ -1224,7 +1264,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+      <c r="A88" s="2" t="n">
         <v>44250</v>
       </c>
       <c r="B88" s="0" t="n">
@@ -1235,7 +1275,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+      <c r="A89" s="2" t="n">
         <v>44250</v>
       </c>
       <c r="B89" s="0" t="n">
@@ -1246,7 +1286,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+      <c r="A90" s="2" t="n">
         <v>44250</v>
       </c>
       <c r="B90" s="0" t="n">
@@ -1257,7 +1297,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+      <c r="A91" s="2" t="n">
         <v>44250</v>
       </c>
       <c r="B91" s="0" t="n">
@@ -1268,7 +1308,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
+      <c r="A92" s="2" t="n">
         <v>44250</v>
       </c>
       <c r="B92" s="0" t="n">
@@ -1279,7 +1319,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+      <c r="A93" s="2" t="n">
         <v>44251</v>
       </c>
       <c r="B93" s="0" t="n">
@@ -1290,7 +1330,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
+      <c r="A94" s="2" t="n">
         <v>44251</v>
       </c>
       <c r="B94" s="0" t="n">
@@ -1301,7 +1341,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
+      <c r="A95" s="2" t="n">
         <v>44251</v>
       </c>
       <c r="B95" s="0" t="n">
@@ -1312,7 +1352,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
+      <c r="A96" s="2" t="n">
         <v>44251</v>
       </c>
       <c r="B96" s="0" t="n">
@@ -1323,7 +1363,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
+      <c r="A97" s="2" t="n">
         <v>44251</v>
       </c>
       <c r="B97" s="0" t="n">
@@ -1334,7 +1374,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
+      <c r="A98" s="2" t="n">
         <v>44251</v>
       </c>
       <c r="B98" s="0" t="n">
@@ -1345,7 +1385,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
+      <c r="A99" s="2" t="n">
         <v>44251</v>
       </c>
       <c r="B99" s="0" t="n">
@@ -1356,7 +1396,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
+      <c r="A100" s="2" t="n">
         <v>44251</v>
       </c>
       <c r="B100" s="0" t="n">
@@ -1367,7 +1407,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+      <c r="A101" s="2" t="n">
         <v>44251</v>
       </c>
       <c r="B101" s="0" t="n">
@@ -1378,7 +1418,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
+      <c r="A102" s="2" t="n">
         <v>44251</v>
       </c>
       <c r="B102" s="0" t="n">
@@ -1389,7 +1429,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
+      <c r="A103" s="2" t="n">
         <v>44252</v>
       </c>
       <c r="B103" s="0" t="n">
@@ -1400,7 +1440,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
+      <c r="A104" s="2" t="n">
         <v>44252</v>
       </c>
       <c r="B104" s="0" t="n">
@@ -1411,7 +1451,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
+      <c r="A105" s="2" t="n">
         <v>44252</v>
       </c>
       <c r="B105" s="0" t="n">
@@ -1422,7 +1462,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
+      <c r="A106" s="2" t="n">
         <v>44252</v>
       </c>
       <c r="B106" s="0" t="n">
@@ -1433,7 +1473,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
+      <c r="A107" s="2" t="n">
         <v>44252</v>
       </c>
       <c r="B107" s="0" t="n">
@@ -1444,7 +1484,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
+      <c r="A108" s="2" t="n">
         <v>44252</v>
       </c>
       <c r="B108" s="0" t="n">
@@ -1455,7 +1495,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
+      <c r="A109" s="2" t="n">
         <v>44252</v>
       </c>
       <c r="B109" s="0" t="n">
@@ -1466,7 +1506,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
+      <c r="A110" s="2" t="n">
         <v>44252</v>
       </c>
       <c r="B110" s="0" t="n">
@@ -1477,7 +1517,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
+      <c r="A111" s="2" t="n">
         <v>44253</v>
       </c>
       <c r="B111" s="0" t="n">
@@ -1488,7 +1528,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
+      <c r="A112" s="2" t="n">
         <v>44253</v>
       </c>
       <c r="B112" s="0" t="n">
@@ -1499,7 +1539,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
+      <c r="A113" s="2" t="n">
         <v>44253</v>
       </c>
       <c r="B113" s="0" t="n">
@@ -1510,7 +1550,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
+      <c r="A114" s="2" t="n">
         <v>44253</v>
       </c>
       <c r="B114" s="0" t="n">
@@ -1521,7 +1561,7 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
+      <c r="A115" s="2" t="n">
         <v>44253</v>
       </c>
       <c r="B115" s="0" t="n">
@@ -1532,7 +1572,7 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
+      <c r="A116" s="2" t="n">
         <v>44253</v>
       </c>
       <c r="B116" s="0" t="n">
@@ -1543,7 +1583,7 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
+      <c r="A117" s="2" t="n">
         <v>44253</v>
       </c>
       <c r="B117" s="0" t="n">
@@ -1554,7 +1594,7 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
+      <c r="A118" s="2" t="n">
         <v>44253</v>
       </c>
       <c r="B118" s="0" t="n">
@@ -1565,7 +1605,7 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
+      <c r="A119" s="2" t="n">
         <v>44253</v>
       </c>
       <c r="B119" s="0" t="n">
@@ -1576,7 +1616,7 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
+      <c r="A120" s="2" t="n">
         <v>44254</v>
       </c>
       <c r="B120" s="0" t="n">
@@ -1587,7 +1627,7 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="n">
+      <c r="A121" s="2" t="n">
         <v>44254</v>
       </c>
       <c r="B121" s="0" t="n">
@@ -1598,7 +1638,7 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
+      <c r="A122" s="2" t="n">
         <v>44254</v>
       </c>
       <c r="B122" s="0" t="n">
@@ -1609,7 +1649,7 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="n">
+      <c r="A123" s="2" t="n">
         <v>44254</v>
       </c>
       <c r="B123" s="0" t="n">
@@ -1620,7 +1660,7 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="n">
+      <c r="A124" s="2" t="n">
         <v>44254</v>
       </c>
       <c r="B124" s="0" t="n">
@@ -1631,7 +1671,7 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="n">
+      <c r="A125" s="2" t="n">
         <v>44254</v>
       </c>
       <c r="B125" s="0" t="n">
@@ -1642,7 +1682,7 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
+      <c r="A126" s="2" t="n">
         <v>44254</v>
       </c>
       <c r="B126" s="0" t="n">
@@ -1653,7 +1693,7 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
+      <c r="A127" s="2" t="n">
         <v>44254</v>
       </c>
       <c r="B127" s="0" t="n">
@@ -1664,7 +1704,7 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="n">
+      <c r="A128" s="2" t="n">
         <v>44254</v>
       </c>
       <c r="B128" s="0" t="n">
@@ -1675,7 +1715,7 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="n">
+      <c r="A129" s="2" t="n">
         <v>44255</v>
       </c>
       <c r="B129" s="0" t="n">
@@ -1686,7 +1726,7 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="n">
+      <c r="A130" s="2" t="n">
         <v>44255</v>
       </c>
       <c r="B130" s="0" t="n">
@@ -1697,7 +1737,7 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="n">
+      <c r="A131" s="2" t="n">
         <v>44255</v>
       </c>
       <c r="B131" s="0" t="n">
@@ -1708,7 +1748,7 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="n">
+      <c r="A132" s="2" t="n">
         <v>44255</v>
       </c>
       <c r="B132" s="0" t="n">
@@ -1719,7 +1759,7 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="n">
+      <c r="A133" s="2" t="n">
         <v>44256</v>
       </c>
       <c r="B133" s="0" t="n">
@@ -1730,7 +1770,7 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="n">
+      <c r="A134" s="2" t="n">
         <v>44256</v>
       </c>
       <c r="B134" s="0" t="n">
@@ -1741,7 +1781,7 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="n">
+      <c r="A135" s="2" t="n">
         <v>44256</v>
       </c>
       <c r="B135" s="0" t="n">
@@ -1752,7 +1792,7 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="n">
+      <c r="A136" s="2" t="n">
         <v>44256</v>
       </c>
       <c r="B136" s="0" t="n">
@@ -1763,7 +1803,7 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="n">
+      <c r="A137" s="2" t="n">
         <v>44256</v>
       </c>
       <c r="B137" s="0" t="n">
@@ -1774,7 +1814,7 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="n">
+      <c r="A138" s="2" t="n">
         <v>44256</v>
       </c>
       <c r="B138" s="0" t="n">
@@ -1785,7 +1825,7 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="n">
+      <c r="A139" s="2" t="n">
         <v>44256</v>
       </c>
       <c r="B139" s="0" t="n">
@@ -1796,7 +1836,7 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="n">
+      <c r="A140" s="2" t="n">
         <v>44256</v>
       </c>
       <c r="B140" s="0" t="n">
@@ -1807,7 +1847,7 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
+      <c r="A141" s="2" t="n">
         <v>44256</v>
       </c>
       <c r="B141" s="0" t="n">
@@ -1818,7 +1858,7 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="n">
+      <c r="A142" s="2" t="n">
         <v>44257</v>
       </c>
       <c r="B142" s="0" t="n">
@@ -1829,7 +1869,7 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="n">
+      <c r="A143" s="2" t="n">
         <v>44257</v>
       </c>
       <c r="B143" s="0" t="n">
@@ -1840,7 +1880,7 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="n">
+      <c r="A144" s="2" t="n">
         <v>44257</v>
       </c>
       <c r="B144" s="0" t="n">
@@ -1851,7 +1891,7 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="n">
+      <c r="A145" s="2" t="n">
         <v>44257</v>
       </c>
       <c r="B145" s="0" t="n">
@@ -1862,7 +1902,7 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="n">
+      <c r="A146" s="2" t="n">
         <v>44257</v>
       </c>
       <c r="B146" s="0" t="n">
@@ -1873,7 +1913,7 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="n">
+      <c r="A147" s="2" t="n">
         <v>44257</v>
       </c>
       <c r="B147" s="0" t="n">
@@ -1884,7 +1924,7 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="n">
+      <c r="A148" s="2" t="n">
         <v>44257</v>
       </c>
       <c r="B148" s="0" t="n">
@@ -1895,7 +1935,7 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="n">
+      <c r="A149" s="2" t="n">
         <v>44257</v>
       </c>
       <c r="B149" s="0" t="n">
@@ -1906,7 +1946,7 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="n">
+      <c r="A150" s="2" t="n">
         <v>44257</v>
       </c>
       <c r="B150" s="0" t="n">
@@ -1917,7 +1957,7 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="n">
+      <c r="A151" s="2" t="n">
         <v>44257</v>
       </c>
       <c r="B151" s="0" t="n">
@@ -1928,7 +1968,7 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="n">
+      <c r="A152" s="2" t="n">
         <v>44258</v>
       </c>
       <c r="B152" s="0" t="n">
@@ -1939,7 +1979,7 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="n">
+      <c r="A153" s="2" t="n">
         <v>44258</v>
       </c>
       <c r="B153" s="0" t="n">
@@ -1950,7 +1990,7 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="n">
+      <c r="A154" s="2" t="n">
         <v>44258</v>
       </c>
       <c r="B154" s="0" t="n">
@@ -1961,7 +2001,7 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="n">
+      <c r="A155" s="2" t="n">
         <v>44258</v>
       </c>
       <c r="B155" s="0" t="n">
@@ -1972,7 +2012,7 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="n">
+      <c r="A156" s="2" t="n">
         <v>44258</v>
       </c>
       <c r="B156" s="0" t="n">
@@ -1983,7 +2023,7 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="n">
+      <c r="A157" s="2" t="n">
         <v>44258</v>
       </c>
       <c r="B157" s="0" t="n">
@@ -1994,7 +2034,7 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="n">
+      <c r="A158" s="2" t="n">
         <v>44258</v>
       </c>
       <c r="B158" s="0" t="n">
@@ -2005,7 +2045,7 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="n">
+      <c r="A159" s="2" t="n">
         <v>44258</v>
       </c>
       <c r="B159" s="0" t="n">
@@ -2016,7 +2056,7 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="n">
+      <c r="A160" s="2" t="n">
         <v>44258</v>
       </c>
       <c r="B160" s="0" t="n">
@@ -2027,7 +2067,7 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="n">
+      <c r="A161" s="2" t="n">
         <v>44258</v>
       </c>
       <c r="B161" s="0" t="n">
@@ -2038,7 +2078,7 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="n">
+      <c r="A162" s="2" t="n">
         <v>44259</v>
       </c>
       <c r="B162" s="0" t="n">
@@ -2049,7 +2089,7 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="n">
+      <c r="A163" s="2" t="n">
         <v>44259</v>
       </c>
       <c r="B163" s="0" t="n">
@@ -2060,7 +2100,7 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="n">
+      <c r="A164" s="2" t="n">
         <v>44259</v>
       </c>
       <c r="B164" s="0" t="n">
@@ -2071,7 +2111,7 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="n">
+      <c r="A165" s="2" t="n">
         <v>44259</v>
       </c>
       <c r="B165" s="0" t="n">
@@ -2082,7 +2122,7 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="n">
+      <c r="A166" s="2" t="n">
         <v>44259</v>
       </c>
       <c r="B166" s="0" t="n">
@@ -2093,7 +2133,7 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="n">
+      <c r="A167" s="2" t="n">
         <v>44259</v>
       </c>
       <c r="B167" s="0" t="n">
@@ -2104,7 +2144,7 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="n">
+      <c r="A168" s="2" t="n">
         <v>44259</v>
       </c>
       <c r="B168" s="0" t="n">
@@ -2115,7 +2155,7 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="n">
+      <c r="A169" s="2" t="n">
         <v>44260</v>
       </c>
       <c r="B169" s="0" t="n">
@@ -2126,7 +2166,7 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="n">
+      <c r="A170" s="2" t="n">
         <v>44260</v>
       </c>
       <c r="B170" s="0" t="n">
@@ -2137,7 +2177,7 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="n">
+      <c r="A171" s="2" t="n">
         <v>44260</v>
       </c>
       <c r="B171" s="0" t="n">
@@ -2148,7 +2188,7 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="n">
+      <c r="A172" s="2" t="n">
         <v>44260</v>
       </c>
       <c r="B172" s="0" t="n">
@@ -2159,7 +2199,7 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="n">
+      <c r="A173" s="2" t="n">
         <v>44260</v>
       </c>
       <c r="B173" s="0" t="n">
@@ -2170,7 +2210,7 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="n">
+      <c r="A174" s="2" t="n">
         <v>44260</v>
       </c>
       <c r="B174" s="0" t="n">
@@ -2181,7 +2221,7 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="n">
+      <c r="A175" s="2" t="n">
         <v>44260</v>
       </c>
       <c r="B175" s="0" t="n">
@@ -2192,7 +2232,7 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="n">
+      <c r="A176" s="2" t="n">
         <v>44260</v>
       </c>
       <c r="B176" s="0" t="n">
@@ -2203,7 +2243,7 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="n">
+      <c r="A177" s="2" t="n">
         <v>44260</v>
       </c>
       <c r="B177" s="0" t="n">
@@ -2214,7 +2254,7 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="n">
+      <c r="A178" s="2" t="n">
         <v>44260</v>
       </c>
       <c r="B178" s="0" t="n">
@@ -2225,7 +2265,7 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="n">
+      <c r="A179" s="2" t="n">
         <v>44260</v>
       </c>
       <c r="B179" s="0" t="n">
@@ -2236,7 +2276,7 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1" t="n">
+      <c r="A180" s="2" t="n">
         <v>44261</v>
       </c>
       <c r="B180" s="0" t="n">
@@ -2247,7 +2287,7 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="n">
+      <c r="A181" s="2" t="n">
         <v>44261</v>
       </c>
       <c r="B181" s="0" t="n">
@@ -2258,7 +2298,7 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="n">
+      <c r="A182" s="2" t="n">
         <v>44261</v>
       </c>
       <c r="B182" s="0" t="n">
@@ -2269,7 +2309,7 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="n">
+      <c r="A183" s="2" t="n">
         <v>44261</v>
       </c>
       <c r="B183" s="0" t="n">
@@ -2280,7 +2320,7 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="n">
+      <c r="A184" s="2" t="n">
         <v>44261</v>
       </c>
       <c r="B184" s="0" t="n">
@@ -2291,7 +2331,7 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1" t="n">
+      <c r="A185" s="2" t="n">
         <v>44262</v>
       </c>
       <c r="B185" s="0" t="n">
@@ -2302,7 +2342,7 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1" t="n">
+      <c r="A186" s="2" t="n">
         <v>44262</v>
       </c>
       <c r="B186" s="0" t="n">
@@ -2313,7 +2353,7 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="n">
+      <c r="A187" s="2" t="n">
         <v>44262</v>
       </c>
       <c r="B187" s="0" t="n">
@@ -2324,7 +2364,7 @@
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1" t="n">
+      <c r="A188" s="2" t="n">
         <v>44262</v>
       </c>
       <c r="B188" s="0" t="n">
@@ -2335,7 +2375,7 @@
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="n">
+      <c r="A189" s="2" t="n">
         <v>44262</v>
       </c>
       <c r="B189" s="0" t="n">
@@ -2346,7 +2386,7 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1" t="n">
+      <c r="A190" s="2" t="n">
         <v>44262</v>
       </c>
       <c r="B190" s="0" t="n">
@@ -2357,7 +2397,7 @@
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1" t="n">
+      <c r="A191" s="2" t="n">
         <v>44262</v>
       </c>
       <c r="B191" s="0" t="n">
@@ -2368,7 +2408,7 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1" t="n">
+      <c r="A192" s="2" t="n">
         <v>44262</v>
       </c>
       <c r="B192" s="0" t="n">
@@ -2379,7 +2419,7 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1" t="n">
+      <c r="A193" s="2" t="n">
         <v>44262</v>
       </c>
       <c r="B193" s="0" t="n">
@@ -2390,7 +2430,7 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="n">
+      <c r="A194" s="2" t="n">
         <v>44262</v>
       </c>
       <c r="B194" s="0" t="n">
@@ -2401,7 +2441,7 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="n">
+      <c r="A195" s="2" t="n">
         <v>44263</v>
       </c>
       <c r="B195" s="0" t="n">
@@ -2412,7 +2452,7 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1" t="n">
+      <c r="A196" s="2" t="n">
         <v>44263</v>
       </c>
       <c r="B196" s="0" t="n">
@@ -2423,7 +2463,7 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="n">
+      <c r="A197" s="2" t="n">
         <v>44263</v>
       </c>
       <c r="B197" s="0" t="n">
@@ -2434,7 +2474,7 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="n">
+      <c r="A198" s="2" t="n">
         <v>44263</v>
       </c>
       <c r="B198" s="0" t="n">
@@ -2445,7 +2485,7 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1" t="n">
+      <c r="A199" s="2" t="n">
         <v>44263</v>
       </c>
       <c r="B199" s="0" t="n">
@@ -2456,7 +2496,7 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="n">
+      <c r="A200" s="2" t="n">
         <v>44263</v>
       </c>
       <c r="B200" s="0" t="n">
@@ -2467,7 +2507,7 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="n">
+      <c r="A201" s="2" t="n">
         <v>44263</v>
       </c>
       <c r="B201" s="0" t="n">
@@ -2478,7 +2518,7 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="n">
+      <c r="A202" s="2" t="n">
         <v>44263</v>
       </c>
       <c r="B202" s="0" t="n">
@@ -2489,7 +2529,7 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="n">
+      <c r="A203" s="2" t="n">
         <v>44263</v>
       </c>
       <c r="B203" s="0" t="n">
@@ -2500,7 +2540,7 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="1" t="n">
+      <c r="A204" s="2" t="n">
         <v>44264</v>
       </c>
       <c r="B204" s="0" t="n">
@@ -2511,7 +2551,7 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="1" t="n">
+      <c r="A205" s="2" t="n">
         <v>44264</v>
       </c>
       <c r="B205" s="0" t="n">
@@ -2522,7 +2562,7 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1" t="n">
+      <c r="A206" s="2" t="n">
         <v>44264</v>
       </c>
       <c r="B206" s="0" t="n">
@@ -2533,7 +2573,7 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="n">
+      <c r="A207" s="2" t="n">
         <v>44264</v>
       </c>
       <c r="B207" s="0" t="n">
@@ -2544,7 +2584,7 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1" t="n">
+      <c r="A208" s="2" t="n">
         <v>44264</v>
       </c>
       <c r="B208" s="0" t="n">
@@ -2555,7 +2595,7 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1" t="n">
+      <c r="A209" s="2" t="n">
         <v>44264</v>
       </c>
       <c r="B209" s="0" t="n">
@@ -2566,7 +2606,7 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="1" t="n">
+      <c r="A210" s="2" t="n">
         <v>44264</v>
       </c>
       <c r="B210" s="0" t="n">
@@ -2577,7 +2617,7 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="1" t="n">
+      <c r="A211" s="2" t="n">
         <v>44264</v>
       </c>
       <c r="B211" s="0" t="n">
@@ -2588,7 +2628,7 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1" t="n">
+      <c r="A212" s="2" t="n">
         <v>44265</v>
       </c>
       <c r="B212" s="0" t="n">
@@ -2599,7 +2639,7 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="1" t="n">
+      <c r="A213" s="2" t="n">
         <v>44265</v>
       </c>
       <c r="B213" s="0" t="n">
@@ -2610,7 +2650,7 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="1" t="n">
+      <c r="A214" s="2" t="n">
         <v>44265</v>
       </c>
       <c r="B214" s="0" t="n">
@@ -2621,7 +2661,7 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="1" t="n">
+      <c r="A215" s="2" t="n">
         <v>44265</v>
       </c>
       <c r="B215" s="0" t="n">
@@ -2632,7 +2672,7 @@
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="1" t="n">
+      <c r="A216" s="2" t="n">
         <v>44265</v>
       </c>
       <c r="B216" s="0" t="n">
@@ -2643,7 +2683,7 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="1" t="n">
+      <c r="A217" s="2" t="n">
         <v>44265</v>
       </c>
       <c r="B217" s="0" t="n">
@@ -2654,7 +2694,7 @@
       </c>
     </row>
     <row r="218" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="1" t="n">
+      <c r="A218" s="2" t="n">
         <v>44265</v>
       </c>
       <c r="B218" s="0" t="n">
@@ -2665,7 +2705,7 @@
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="1" t="n">
+      <c r="A219" s="2" t="n">
         <v>44265</v>
       </c>
       <c r="B219" s="0" t="n">
@@ -2676,7 +2716,7 @@
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="1" t="n">
+      <c r="A220" s="2" t="n">
         <v>44265</v>
       </c>
       <c r="B220" s="0" t="n">
@@ -2687,7 +2727,7 @@
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="1" t="n">
+      <c r="A221" s="2" t="n">
         <v>44266</v>
       </c>
       <c r="B221" s="0" t="n">
@@ -2698,7 +2738,7 @@
       </c>
     </row>
     <row r="222" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="1" t="n">
+      <c r="A222" s="2" t="n">
         <v>44266</v>
       </c>
       <c r="B222" s="0" t="n">
@@ -2709,7 +2749,7 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="1" t="n">
+      <c r="A223" s="2" t="n">
         <v>44266</v>
       </c>
       <c r="B223" s="0" t="n">
@@ -2720,7 +2760,7 @@
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="1" t="n">
+      <c r="A224" s="2" t="n">
         <v>44266</v>
       </c>
       <c r="B224" s="0" t="n">
@@ -2731,7 +2771,7 @@
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="1" t="n">
+      <c r="A225" s="2" t="n">
         <v>44266</v>
       </c>
       <c r="B225" s="0" t="n">
@@ -2742,7 +2782,7 @@
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="1" t="n">
+      <c r="A226" s="2" t="n">
         <v>44266</v>
       </c>
       <c r="B226" s="0" t="n">
@@ -2753,7 +2793,7 @@
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="1" t="n">
+      <c r="A227" s="2" t="n">
         <v>44266</v>
       </c>
       <c r="B227" s="0" t="n">
@@ -2764,7 +2804,7 @@
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="1" t="n">
+      <c r="A228" s="2" t="n">
         <v>44266</v>
       </c>
       <c r="B228" s="0" t="n">
@@ -2775,7 +2815,7 @@
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="1" t="n">
+      <c r="A229" s="2" t="n">
         <v>44266</v>
       </c>
       <c r="B229" s="0" t="n">
@@ -2786,7 +2826,7 @@
       </c>
     </row>
     <row r="230" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="1" t="n">
+      <c r="A230" s="2" t="n">
         <v>44267</v>
       </c>
       <c r="B230" s="0" t="n">
@@ -2797,7 +2837,7 @@
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="1" t="n">
+      <c r="A231" s="2" t="n">
         <v>44267</v>
       </c>
       <c r="B231" s="0" t="n">
@@ -2808,7 +2848,7 @@
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="1" t="n">
+      <c r="A232" s="2" t="n">
         <v>44267</v>
       </c>
       <c r="B232" s="0" t="n">
@@ -2819,7 +2859,7 @@
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="1" t="n">
+      <c r="A233" s="2" t="n">
         <v>44267</v>
       </c>
       <c r="B233" s="0" t="n">
@@ -2830,7 +2870,7 @@
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="1" t="n">
+      <c r="A234" s="2" t="n">
         <v>44267</v>
       </c>
       <c r="B234" s="0" t="n">
@@ -2841,7 +2881,7 @@
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="1" t="n">
+      <c r="A235" s="2" t="n">
         <v>44267</v>
       </c>
       <c r="B235" s="0" t="n">
@@ -2852,7 +2892,7 @@
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="1" t="n">
+      <c r="A236" s="2" t="n">
         <v>44267</v>
       </c>
       <c r="B236" s="0" t="n">
@@ -2863,7 +2903,7 @@
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="1" t="n">
+      <c r="A237" s="2" t="n">
         <v>44267</v>
       </c>
       <c r="B237" s="0" t="n">
@@ -2874,7 +2914,7 @@
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="1" t="n">
+      <c r="A238" s="2" t="n">
         <v>44267</v>
       </c>
       <c r="B238" s="0" t="n">
@@ -2885,7 +2925,7 @@
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="1" t="n">
+      <c r="A239" s="2" t="n">
         <v>44268</v>
       </c>
       <c r="B239" s="0" t="n">
@@ -2896,7 +2936,7 @@
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="1" t="n">
+      <c r="A240" s="2" t="n">
         <v>44268</v>
       </c>
       <c r="B240" s="0" t="n">
@@ -2907,7 +2947,7 @@
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="1" t="n">
+      <c r="A241" s="2" t="n">
         <v>44268</v>
       </c>
       <c r="B241" s="0" t="n">
@@ -2918,7 +2958,7 @@
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="1" t="n">
+      <c r="A242" s="2" t="n">
         <v>44268</v>
       </c>
       <c r="B242" s="0" t="n">
@@ -2929,7 +2969,7 @@
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="1" t="n">
+      <c r="A243" s="2" t="n">
         <v>44268</v>
       </c>
       <c r="B243" s="0" t="n">
@@ -2940,7 +2980,7 @@
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="1" t="n">
+      <c r="A244" s="2" t="n">
         <v>44269</v>
       </c>
       <c r="B244" s="0" t="n">
@@ -2951,7 +2991,7 @@
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="1" t="n">
+      <c r="A245" s="2" t="n">
         <v>44269</v>
       </c>
       <c r="B245" s="0" t="n">
@@ -2962,7 +3002,7 @@
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="1" t="n">
+      <c r="A246" s="2" t="n">
         <v>44269</v>
       </c>
       <c r="B246" s="0" t="n">
@@ -2973,7 +3013,7 @@
       </c>
     </row>
     <row r="247" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="1" t="n">
+      <c r="A247" s="2" t="n">
         <v>44269</v>
       </c>
       <c r="B247" s="0" t="n">
@@ -2984,7 +3024,7 @@
       </c>
     </row>
     <row r="248" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="1" t="n">
+      <c r="A248" s="2" t="n">
         <v>44269</v>
       </c>
       <c r="B248" s="0" t="n">
@@ -2995,7 +3035,7 @@
       </c>
     </row>
     <row r="249" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="1" t="n">
+      <c r="A249" s="2" t="n">
         <v>44269</v>
       </c>
       <c r="B249" s="0" t="n">
@@ -3006,7 +3046,7 @@
       </c>
     </row>
     <row r="250" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="1" t="n">
+      <c r="A250" s="2" t="n">
         <v>44269</v>
       </c>
       <c r="B250" s="0" t="n">
@@ -3017,7 +3057,7 @@
       </c>
     </row>
     <row r="251" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="1" t="n">
+      <c r="A251" s="2" t="n">
         <v>44269</v>
       </c>
       <c r="B251" s="0" t="n">
@@ -3028,7 +3068,7 @@
       </c>
     </row>
     <row r="252" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="1" t="n">
+      <c r="A252" s="2" t="n">
         <v>44270</v>
       </c>
       <c r="B252" s="0" t="n">
@@ -3039,7 +3079,7 @@
       </c>
     </row>
     <row r="253" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="1" t="n">
+      <c r="A253" s="2" t="n">
         <v>44270</v>
       </c>
       <c r="B253" s="0" t="n">
@@ -3050,7 +3090,7 @@
       </c>
     </row>
     <row r="254" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="1" t="n">
+      <c r="A254" s="2" t="n">
         <v>44270</v>
       </c>
       <c r="B254" s="0" t="n">
@@ -3061,7 +3101,7 @@
       </c>
     </row>
     <row r="255" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="1" t="n">
+      <c r="A255" s="2" t="n">
         <v>44270</v>
       </c>
       <c r="B255" s="0" t="n">
@@ -3072,7 +3112,7 @@
       </c>
     </row>
     <row r="256" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="1" t="n">
+      <c r="A256" s="2" t="n">
         <v>44270</v>
       </c>
       <c r="B256" s="0" t="n">
@@ -3083,7 +3123,7 @@
       </c>
     </row>
     <row r="257" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="1" t="n">
+      <c r="A257" s="2" t="n">
         <v>44270</v>
       </c>
       <c r="B257" s="0" t="n">
@@ -3094,7 +3134,7 @@
       </c>
     </row>
     <row r="258" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="1" t="n">
+      <c r="A258" s="2" t="n">
         <v>44270</v>
       </c>
       <c r="B258" s="0" t="n">
@@ -3105,7 +3145,7 @@
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="1" t="n">
+      <c r="A259" s="2" t="n">
         <v>44270</v>
       </c>
       <c r="B259" s="0" t="n">
@@ -3116,7 +3156,7 @@
       </c>
     </row>
     <row r="260" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="1" t="n">
+      <c r="A260" s="2" t="n">
         <v>44270</v>
       </c>
       <c r="B260" s="0" t="n">
@@ -3127,7 +3167,7 @@
       </c>
     </row>
     <row r="261" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="1" t="n">
+      <c r="A261" s="2" t="n">
         <v>44271</v>
       </c>
       <c r="B261" s="0" t="n">
@@ -3138,7 +3178,7 @@
       </c>
     </row>
     <row r="262" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="1" t="n">
+      <c r="A262" s="2" t="n">
         <v>44271</v>
       </c>
       <c r="B262" s="0" t="n">
@@ -3149,7 +3189,7 @@
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="1" t="n">
+      <c r="A263" s="2" t="n">
         <v>44271</v>
       </c>
       <c r="B263" s="0" t="n">
@@ -3160,7 +3200,7 @@
       </c>
     </row>
     <row r="264" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="1" t="n">
+      <c r="A264" s="2" t="n">
         <v>44271</v>
       </c>
       <c r="B264" s="0" t="n">
@@ -3171,7 +3211,7 @@
       </c>
     </row>
     <row r="265" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="1" t="n">
+      <c r="A265" s="2" t="n">
         <v>44271</v>
       </c>
       <c r="B265" s="0" t="n">
@@ -3182,7 +3222,7 @@
       </c>
     </row>
     <row r="266" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="1" t="n">
+      <c r="A266" s="2" t="n">
         <v>44271</v>
       </c>
       <c r="B266" s="0" t="n">
@@ -3193,7 +3233,7 @@
       </c>
     </row>
     <row r="267" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="1" t="n">
+      <c r="A267" s="2" t="n">
         <v>44271</v>
       </c>
       <c r="B267" s="0" t="n">
@@ -3204,7 +3244,7 @@
       </c>
     </row>
     <row r="268" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="1" t="n">
+      <c r="A268" s="2" t="n">
         <v>44271</v>
       </c>
       <c r="B268" s="0" t="n">
@@ -3215,7 +3255,7 @@
       </c>
     </row>
     <row r="269" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="1" t="n">
+      <c r="A269" s="2" t="n">
         <v>44271</v>
       </c>
       <c r="B269" s="0" t="n">
@@ -3226,7 +3266,7 @@
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="1" t="n">
+      <c r="A270" s="2" t="n">
         <v>44271</v>
       </c>
       <c r="B270" s="0" t="n">
@@ -3237,7 +3277,7 @@
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="1" t="n">
+      <c r="A271" s="2" t="n">
         <v>44272</v>
       </c>
       <c r="B271" s="0" t="n">
@@ -3248,7 +3288,7 @@
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="1" t="n">
+      <c r="A272" s="2" t="n">
         <v>44272</v>
       </c>
       <c r="B272" s="0" t="n">
@@ -3259,7 +3299,7 @@
       </c>
     </row>
     <row r="273" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="1" t="n">
+      <c r="A273" s="2" t="n">
         <v>44272</v>
       </c>
       <c r="B273" s="0" t="n">
@@ -3270,7 +3310,7 @@
       </c>
     </row>
     <row r="274" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="1" t="n">
+      <c r="A274" s="2" t="n">
         <v>44272</v>
       </c>
       <c r="B274" s="0" t="n">
@@ -3281,7 +3321,7 @@
       </c>
     </row>
     <row r="275" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="1" t="n">
+      <c r="A275" s="2" t="n">
         <v>44272</v>
       </c>
       <c r="B275" s="0" t="n">
@@ -3292,7 +3332,7 @@
       </c>
     </row>
     <row r="276" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="1" t="n">
+      <c r="A276" s="2" t="n">
         <v>44272</v>
       </c>
       <c r="B276" s="0" t="n">
@@ -3303,7 +3343,7 @@
       </c>
     </row>
     <row r="277" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="1" t="n">
+      <c r="A277" s="2" t="n">
         <v>44272</v>
       </c>
       <c r="B277" s="0" t="n">
@@ -3314,7 +3354,7 @@
       </c>
     </row>
     <row r="278" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="1" t="n">
+      <c r="A278" s="2" t="n">
         <v>44272</v>
       </c>
       <c r="B278" s="0" t="n">
@@ -3325,7 +3365,7 @@
       </c>
     </row>
     <row r="279" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="1" t="n">
+      <c r="A279" s="2" t="n">
         <v>44273</v>
       </c>
       <c r="B279" s="0" t="n">
@@ -3336,7 +3376,7 @@
       </c>
     </row>
     <row r="280" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="1" t="n">
+      <c r="A280" s="2" t="n">
         <v>44273</v>
       </c>
       <c r="B280" s="0" t="n">
@@ -3347,7 +3387,7 @@
       </c>
     </row>
     <row r="281" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="1" t="n">
+      <c r="A281" s="2" t="n">
         <v>44273</v>
       </c>
       <c r="B281" s="0" t="n">
@@ -3358,7 +3398,7 @@
       </c>
     </row>
     <row r="282" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="1" t="n">
+      <c r="A282" s="2" t="n">
         <v>44273</v>
       </c>
       <c r="B282" s="0" t="n">
@@ -3369,7 +3409,7 @@
       </c>
     </row>
     <row r="283" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="1" t="n">
+      <c r="A283" s="2" t="n">
         <v>44273</v>
       </c>
       <c r="B283" s="0" t="n">
@@ -3380,7 +3420,7 @@
       </c>
     </row>
     <row r="284" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="1" t="n">
+      <c r="A284" s="2" t="n">
         <v>44273</v>
       </c>
       <c r="B284" s="0" t="n">
@@ -3391,7 +3431,7 @@
       </c>
     </row>
     <row r="285" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="1" t="n">
+      <c r="A285" s="2" t="n">
         <v>44273</v>
       </c>
       <c r="B285" s="0" t="n">
@@ -3402,7 +3442,7 @@
       </c>
     </row>
     <row r="286" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="1" t="n">
+      <c r="A286" s="2" t="n">
         <v>44274</v>
       </c>
       <c r="B286" s="0" t="n">
@@ -3413,7 +3453,7 @@
       </c>
     </row>
     <row r="287" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="1" t="n">
+      <c r="A287" s="2" t="n">
         <v>44274</v>
       </c>
       <c r="B287" s="0" t="n">
@@ -3424,7 +3464,7 @@
       </c>
     </row>
     <row r="288" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="1" t="n">
+      <c r="A288" s="2" t="n">
         <v>44274</v>
       </c>
       <c r="B288" s="0" t="n">
@@ -3435,7 +3475,7 @@
       </c>
     </row>
     <row r="289" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="1" t="n">
+      <c r="A289" s="2" t="n">
         <v>44274</v>
       </c>
       <c r="B289" s="0" t="n">
@@ -3446,7 +3486,7 @@
       </c>
     </row>
     <row r="290" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="1" t="n">
+      <c r="A290" s="2" t="n">
         <v>44274</v>
       </c>
       <c r="B290" s="0" t="n">
@@ -3457,7 +3497,7 @@
       </c>
     </row>
     <row r="291" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="1" t="n">
+      <c r="A291" s="2" t="n">
         <v>44274</v>
       </c>
       <c r="B291" s="0" t="n">
@@ -3468,7 +3508,7 @@
       </c>
     </row>
     <row r="292" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="1" t="n">
+      <c r="A292" s="2" t="n">
         <v>44274</v>
       </c>
       <c r="B292" s="0" t="n">
@@ -3479,7 +3519,7 @@
       </c>
     </row>
     <row r="293" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="1" t="n">
+      <c r="A293" s="2" t="n">
         <v>44274</v>
       </c>
       <c r="B293" s="0" t="n">
@@ -3490,7 +3530,7 @@
       </c>
     </row>
     <row r="294" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="1" t="n">
+      <c r="A294" s="2" t="n">
         <v>44274</v>
       </c>
       <c r="B294" s="0" t="n">
@@ -3501,7 +3541,7 @@
       </c>
     </row>
     <row r="295" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="1" t="n">
+      <c r="A295" s="2" t="n">
         <v>44274</v>
       </c>
       <c r="B295" s="0" t="n">
@@ -3512,7 +3552,7 @@
       </c>
     </row>
     <row r="296" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="1" t="n">
+      <c r="A296" s="2" t="n">
         <v>44274</v>
       </c>
       <c r="B296" s="0" t="n">
@@ -3523,7 +3563,7 @@
       </c>
     </row>
     <row r="297" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="1" t="n">
+      <c r="A297" s="2" t="n">
         <v>44275</v>
       </c>
       <c r="B297" s="0" t="n">
@@ -3534,7 +3574,7 @@
       </c>
     </row>
     <row r="298" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="1" t="n">
+      <c r="A298" s="2" t="n">
         <v>44275</v>
       </c>
       <c r="B298" s="0" t="n">
@@ -3545,7 +3585,7 @@
       </c>
     </row>
     <row r="299" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="1" t="n">
+      <c r="A299" s="2" t="n">
         <v>44275</v>
       </c>
       <c r="B299" s="0" t="n">
@@ -3556,7 +3596,7 @@
       </c>
     </row>
     <row r="300" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="1" t="n">
+      <c r="A300" s="2" t="n">
         <v>44275</v>
       </c>
       <c r="B300" s="0" t="n">
@@ -3567,7 +3607,7 @@
       </c>
     </row>
     <row r="301" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="1" t="n">
+      <c r="A301" s="2" t="n">
         <v>44275</v>
       </c>
       <c r="B301" s="0" t="n">
@@ -3578,7 +3618,7 @@
       </c>
     </row>
     <row r="302" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="1" t="n">
+      <c r="A302" s="2" t="n">
         <v>44276</v>
       </c>
       <c r="B302" s="0" t="n">
@@ -3589,7 +3629,7 @@
       </c>
     </row>
     <row r="303" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="1" t="n">
+      <c r="A303" s="2" t="n">
         <v>44276</v>
       </c>
       <c r="B303" s="0" t="n">
@@ -3600,7 +3640,7 @@
       </c>
     </row>
     <row r="304" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="1" t="n">
+      <c r="A304" s="2" t="n">
         <v>44276</v>
       </c>
       <c r="B304" s="0" t="n">
@@ -3611,7 +3651,7 @@
       </c>
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="1" t="n">
+      <c r="A305" s="2" t="n">
         <v>44276</v>
       </c>
       <c r="B305" s="0" t="n">
@@ -3622,7 +3662,7 @@
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="1" t="n">
+      <c r="A306" s="2" t="n">
         <v>44277</v>
       </c>
       <c r="B306" s="0" t="n">
@@ -3633,7 +3673,7 @@
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="1" t="n">
+      <c r="A307" s="2" t="n">
         <v>44277</v>
       </c>
       <c r="B307" s="0" t="n">
@@ -3644,7 +3684,7 @@
       </c>
     </row>
     <row r="308" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="1" t="n">
+      <c r="A308" s="2" t="n">
         <v>44277</v>
       </c>
       <c r="B308" s="0" t="n">
@@ -3655,7 +3695,7 @@
       </c>
     </row>
     <row r="309" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="1" t="n">
+      <c r="A309" s="2" t="n">
         <v>44277</v>
       </c>
       <c r="B309" s="0" t="n">
@@ -3666,7 +3706,7 @@
       </c>
     </row>
     <row r="310" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="1" t="n">
+      <c r="A310" s="2" t="n">
         <v>44277</v>
       </c>
       <c r="B310" s="0" t="n">
@@ -3677,7 +3717,7 @@
       </c>
     </row>
     <row r="311" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="1" t="n">
+      <c r="A311" s="2" t="n">
         <v>44277</v>
       </c>
       <c r="B311" s="0" t="n">
@@ -3688,7 +3728,7 @@
       </c>
     </row>
     <row r="312" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="1" t="n">
+      <c r="A312" s="2" t="n">
         <v>44277</v>
       </c>
       <c r="B312" s="0" t="n">
@@ -3699,7 +3739,7 @@
       </c>
     </row>
     <row r="313" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="1" t="n">
+      <c r="A313" s="2" t="n">
         <v>44277</v>
       </c>
       <c r="B313" s="0" t="n">
@@ -3710,7 +3750,7 @@
       </c>
     </row>
     <row r="314" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="1" t="n">
+      <c r="A314" s="2" t="n">
         <v>44277</v>
       </c>
       <c r="B314" s="0" t="n">
@@ -3721,7 +3761,7 @@
       </c>
     </row>
     <row r="315" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="1" t="n">
+      <c r="A315" s="2" t="n">
         <v>44278</v>
       </c>
       <c r="B315" s="0" t="n">
@@ -3732,7 +3772,7 @@
       </c>
     </row>
     <row r="316" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="1" t="n">
+      <c r="A316" s="2" t="n">
         <v>44278</v>
       </c>
       <c r="B316" s="0" t="n">
@@ -3743,7 +3783,7 @@
       </c>
     </row>
     <row r="317" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="1" t="n">
+      <c r="A317" s="2" t="n">
         <v>44278</v>
       </c>
       <c r="B317" s="0" t="n">
@@ -3754,7 +3794,7 @@
       </c>
     </row>
     <row r="318" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="1" t="n">
+      <c r="A318" s="2" t="n">
         <v>44278</v>
       </c>
       <c r="B318" s="0" t="n">
@@ -3765,7 +3805,7 @@
       </c>
     </row>
     <row r="319" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="1" t="n">
+      <c r="A319" s="2" t="n">
         <v>44278</v>
       </c>
       <c r="B319" s="0" t="n">
@@ -3776,7 +3816,7 @@
       </c>
     </row>
     <row r="320" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="1" t="n">
+      <c r="A320" s="2" t="n">
         <v>44278</v>
       </c>
       <c r="B320" s="0" t="n">
@@ -3787,7 +3827,7 @@
       </c>
     </row>
     <row r="321" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="1" t="n">
+      <c r="A321" s="2" t="n">
         <v>44278</v>
       </c>
       <c r="B321" s="0" t="n">
@@ -3798,7 +3838,7 @@
       </c>
     </row>
     <row r="322" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="1" t="n">
+      <c r="A322" s="2" t="n">
         <v>44279</v>
       </c>
       <c r="B322" s="0" t="n">
@@ -3809,7 +3849,7 @@
       </c>
     </row>
     <row r="323" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="1" t="n">
+      <c r="A323" s="2" t="n">
         <v>44279</v>
       </c>
       <c r="B323" s="0" t="n">
@@ -3820,7 +3860,7 @@
       </c>
     </row>
     <row r="324" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="1" t="n">
+      <c r="A324" s="2" t="n">
         <v>44279</v>
       </c>
       <c r="B324" s="0" t="n">
@@ -3831,7 +3871,7 @@
       </c>
     </row>
     <row r="325" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="1" t="n">
+      <c r="A325" s="2" t="n">
         <v>44279</v>
       </c>
       <c r="B325" s="0" t="n">
@@ -3842,7 +3882,7 @@
       </c>
     </row>
     <row r="326" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="1" t="n">
+      <c r="A326" s="2" t="n">
         <v>44279</v>
       </c>
       <c r="B326" s="0" t="n">
@@ -3853,7 +3893,7 @@
       </c>
     </row>
     <row r="327" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="1" t="n">
+      <c r="A327" s="2" t="n">
         <v>44279</v>
       </c>
       <c r="B327" s="0" t="n">
@@ -3864,7 +3904,7 @@
       </c>
     </row>
     <row r="328" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="1" t="n">
+      <c r="A328" s="2" t="n">
         <v>44279</v>
       </c>
       <c r="B328" s="0" t="n">
@@ -3875,7 +3915,7 @@
       </c>
     </row>
     <row r="329" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="1" t="n">
+      <c r="A329" s="2" t="n">
         <v>44279</v>
       </c>
       <c r="B329" s="0" t="n">
@@ -3886,7 +3926,7 @@
       </c>
     </row>
     <row r="330" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="1" t="n">
+      <c r="A330" s="2" t="n">
         <v>44279</v>
       </c>
       <c r="B330" s="0" t="n">
@@ -3897,7 +3937,7 @@
       </c>
     </row>
     <row r="331" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="1" t="n">
+      <c r="A331" s="2" t="n">
         <v>44280</v>
       </c>
       <c r="B331" s="0" t="n">
@@ -3908,7 +3948,7 @@
       </c>
     </row>
     <row r="332" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="1" t="n">
+      <c r="A332" s="2" t="n">
         <v>44280</v>
       </c>
       <c r="B332" s="0" t="n">
@@ -3919,7 +3959,7 @@
       </c>
     </row>
     <row r="333" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="1" t="n">
+      <c r="A333" s="2" t="n">
         <v>44280</v>
       </c>
       <c r="B333" s="0" t="n">
@@ -3930,7 +3970,7 @@
       </c>
     </row>
     <row r="334" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="1" t="n">
+      <c r="A334" s="2" t="n">
         <v>44280</v>
       </c>
       <c r="B334" s="0" t="n">
@@ -3941,7 +3981,7 @@
       </c>
     </row>
     <row r="335" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="1" t="n">
+      <c r="A335" s="2" t="n">
         <v>44280</v>
       </c>
       <c r="B335" s="0" t="n">
@@ -3952,7 +3992,7 @@
       </c>
     </row>
     <row r="336" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="1" t="n">
+      <c r="A336" s="2" t="n">
         <v>44280</v>
       </c>
       <c r="B336" s="0" t="n">
@@ -3963,7 +4003,7 @@
       </c>
     </row>
     <row r="337" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="1" t="n">
+      <c r="A337" s="2" t="n">
         <v>44281</v>
       </c>
       <c r="B337" s="0" t="n">
@@ -3974,7 +4014,7 @@
       </c>
     </row>
     <row r="338" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="1" t="n">
+      <c r="A338" s="2" t="n">
         <v>44281</v>
       </c>
       <c r="B338" s="0" t="n">
@@ -3985,7 +4025,7 @@
       </c>
     </row>
     <row r="339" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="1" t="n">
+      <c r="A339" s="2" t="n">
         <v>44281</v>
       </c>
       <c r="B339" s="0" t="n">
@@ -3996,7 +4036,7 @@
       </c>
     </row>
     <row r="340" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="1" t="n">
+      <c r="A340" s="2" t="n">
         <v>44281</v>
       </c>
       <c r="B340" s="0" t="n">
@@ -4007,7 +4047,7 @@
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="1" t="n">
+      <c r="A341" s="2" t="n">
         <v>44281</v>
       </c>
       <c r="B341" s="0" t="n">
@@ -4018,7 +4058,7 @@
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="1" t="n">
+      <c r="A342" s="2" t="n">
         <v>44282</v>
       </c>
       <c r="B342" s="0" t="n">
@@ -4029,220 +4069,220 @@
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="1"/>
+      <c r="A343" s="2"/>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="1"/>
+      <c r="A344" s="2"/>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="1"/>
+      <c r="A345" s="2"/>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="1"/>
+      <c r="A346" s="2"/>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="1"/>
+      <c r="A347" s="2"/>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="1"/>
+      <c r="A348" s="2"/>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="1"/>
+      <c r="A349" s="2"/>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="1"/>
+      <c r="A350" s="2"/>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="1"/>
+      <c r="A351" s="2"/>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="1"/>
+      <c r="A352" s="2"/>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="1"/>
+      <c r="A353" s="2"/>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="1"/>
+      <c r="A354" s="2"/>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="1"/>
+      <c r="A355" s="2"/>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="1"/>
+      <c r="A356" s="2"/>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="1"/>
+      <c r="A357" s="2"/>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="1"/>
+      <c r="A358" s="2"/>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="1"/>
+      <c r="A359" s="2"/>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="1"/>
+      <c r="A360" s="2"/>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="1"/>
+      <c r="A361" s="2"/>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="1"/>
+      <c r="A362" s="2"/>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="1"/>
+      <c r="A363" s="2"/>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="1"/>
+      <c r="A364" s="2"/>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="1"/>
+      <c r="A365" s="2"/>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="1"/>
+      <c r="A366" s="2"/>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="1"/>
+      <c r="A367" s="2"/>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="1"/>
+      <c r="A368" s="2"/>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="1"/>
+      <c r="A369" s="2"/>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="1"/>
+      <c r="A370" s="2"/>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="1"/>
+      <c r="A371" s="2"/>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="1"/>
+      <c r="A372" s="2"/>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="1"/>
+      <c r="A373" s="2"/>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="1"/>
+      <c r="A374" s="2"/>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="1"/>
+      <c r="A375" s="2"/>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="1"/>
+      <c r="A376" s="2"/>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="1"/>
+      <c r="A377" s="2"/>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="1"/>
+      <c r="A378" s="2"/>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="1"/>
+      <c r="A379" s="2"/>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="1"/>
+      <c r="A380" s="2"/>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="1"/>
+      <c r="A381" s="2"/>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="1"/>
+      <c r="A382" s="2"/>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="1"/>
+      <c r="A383" s="2"/>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="1"/>
+      <c r="A384" s="2"/>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="1"/>
+      <c r="A385" s="2"/>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="1"/>
+      <c r="A386" s="2"/>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="1"/>
+      <c r="A387" s="2"/>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="1"/>
+      <c r="A388" s="2"/>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="1"/>
+      <c r="A389" s="2"/>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="1"/>
+      <c r="A390" s="2"/>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="1"/>
+      <c r="A391" s="2"/>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="1"/>
+      <c r="A392" s="2"/>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="1"/>
+      <c r="A393" s="2"/>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="1"/>
+      <c r="A394" s="2"/>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="1"/>
+      <c r="A395" s="2"/>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="1"/>
+      <c r="A396" s="2"/>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="1"/>
+      <c r="A397" s="2"/>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="1"/>
+      <c r="A398" s="2"/>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="1"/>
+      <c r="A399" s="2"/>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="1"/>
+      <c r="A400" s="2"/>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="1"/>
+      <c r="A401" s="2"/>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="1"/>
+      <c r="A402" s="2"/>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="1"/>
+      <c r="A403" s="2"/>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="1"/>
+      <c r="A404" s="2"/>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="1"/>
+      <c r="A405" s="2"/>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="1"/>
+      <c r="A406" s="2"/>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="1"/>
+      <c r="A407" s="2"/>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="1"/>
+      <c r="A408" s="2"/>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="1"/>
+      <c r="A409" s="2"/>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="1"/>
+      <c r="A410" s="2"/>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="1"/>
+      <c r="A411" s="2"/>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="1"/>
+      <c r="A412" s="2"/>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="1"/>
+      <c r="A413" s="2"/>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="1"/>
+      <c r="A414" s="2"/>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4307,34 +4347,34 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.91"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5047,4 +5087,161 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>44242</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>44243</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>87</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>170</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>44244</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>79</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>160</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>44245</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>175</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>44246</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/example.xlsx
+++ b/example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="log" sheetId="1" state="visible" r:id="rId2"/>
@@ -294,13 +294,13 @@
   </sheetPr>
   <dimension ref="A1:C459"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.91"/>
@@ -4350,10 +4350,10 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.91"/>
   </cols>
@@ -5094,15 +5094,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.53"/>
   </cols>
@@ -5215,7 +5215,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>180</v>
@@ -5224,17 +5224,283 @@
         <v>21</v>
       </c>
       <c r="F6" s="5" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>44247</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>81</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>181</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>44248</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>82</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>182</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F8" s="5" t="n">
         <v>110</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>44249</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>83</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>183</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>44250</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>84</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>184</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>44251</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>85</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>170</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>79</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>160</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="n">
+        <v>44253</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>175</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="n">
+        <v>44254</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>176</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="n">
+        <v>44255</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>81</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>177</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>82</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>178</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="n">
+        <v>44257</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>83</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>179</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="n">
+        <v>44258</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>84</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>170</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="n">
+        <v>44259</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>85</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>160</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
